--- a/MATLAB Plots/Demo Data.xlsx
+++ b/MATLAB Plots/Demo Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myste\Documents\Julia\AA228PoliceOfficersOnDemand\MATLAB Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFE6A73-BCC8-4A7A-9002-8194C8FE6C6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405DE927-3AA1-488E-BBDC-0C24B2FE770A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10310" windowHeight="5400" xr2:uid="{495687ED-720E-4883-A996-B0EFC890CC45}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
